--- a/exemples/cryptoAAVEpolygon.xlsx
+++ b/exemples/cryptoAAVEpolygon.xlsx
@@ -135,7 +135,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +151,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFBBE33D"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,59 +231,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +340,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFBBE33D"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -464,16 +470,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="A5:D17"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.26"/>
@@ -546,7 +552,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -574,7 +580,7 @@
       </c>
       <c r="L2" s="7" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="M2" s="8" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
@@ -603,10 +609,10 @@
         <v>200000</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>1E-009</v>
+        <v>1E-011</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45962</v>
+        <v>45919</v>
       </c>
       <c r="D4" s="13"/>
       <c r="H4" s="1" t="s">
@@ -626,8 +632,18 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoAAVEpolygon.xlsx
+++ b/exemples/cryptoAAVEpolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">AAVE</t>
   </si>
   <si>
-    <t xml:space="preserve">0xD6DF932A45C0f255f85145f286eA0b292B21C90B</t>
-  </si>
-  <si>
     <t xml:space="preserve">polygon</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t xml:space="preserve">USDT</t>
   </si>
   <si>
-    <t xml:space="preserve">0xc2132d05d31c914a87c6611c10748aeb04b58e8f</t>
+    <t xml:space="preserve">0x3c499c542cef5e3811e1192ce70d8cc03d5c3359</t>
   </si>
   <si>
     <t xml:space="preserve">VAL dollars</t>
@@ -135,7 +132,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,7 +148,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
-        <bgColor rgb="FFBBE33D"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
@@ -176,12 +173,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C7DC"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBBE33D"/>
-        <bgColor rgb="FFD4EA6B"/>
       </patternFill>
     </fill>
   </fills>
@@ -231,60 +222,60 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -340,7 +331,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FFBBE33D"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -470,16 +461,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1048576"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4:D4"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="A5:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.26"/>
@@ -545,84 +536,84 @@
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
+      <c r="B2" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="J2" s="7" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>200000</v>
-      </c>
-      <c r="K2" s="6" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>240000</v>
-      </c>
-      <c r="L2" s="7" t="n">
+        <v>354.552</v>
+      </c>
+      <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>1E-011</v>
-      </c>
-      <c r="M2" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
         <v>4</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="N2" s="10" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
-        <v>200000</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>1E-011</v>
+      <c r="A4" s="5" t="n">
+        <v>295.46</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="C4" s="12" t="n">
-        <v>45919</v>
+        <v>45921</v>
       </c>
       <c r="D4" s="13"/>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -632,18 +623,13 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoAAVEpolygon.xlsx
+++ b/exemples/cryptoAAVEpolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">AAVE</t>
   </si>
   <si>
+    <t xml:space="preserve">0xD6DF932A45C0f255f85145f286eA0b292B21C90B</t>
+  </si>
+  <si>
     <t xml:space="preserve">polygon</t>
   </si>
   <si>
@@ -92,6 +95,63 @@
   </si>
   <si>
     <t xml:space="preserve">&lt; - initialiser la premiere ligne manuellent : ////valeur cours actuelle ou anticipée crypto/dollars //// 0,00000000001 //// date du jour //// heure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:17:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:28:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18:14:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:35:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:35:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:35:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:00:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:17</t>
   </si>
 </sst>
 </file>
@@ -217,65 +277,61 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -461,10 +517,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="A5:D28"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -536,8 +592,8 @@
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>2</v>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="n">
         <v>20</v>
@@ -546,36 +602,36 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>295.46</v>
+        <v>166.38</v>
       </c>
       <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>295.46</v>
+        <v>253.101262696461</v>
       </c>
       <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>354.552</v>
+        <v>303.721515235753</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>10</v>
+        <v>93.53</v>
       </c>
       <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>18</v>
@@ -583,16 +639,16 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -607,29 +663,191 @@
       </c>
       <c r="D4" s="13"/>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="5" t="n">
+        <v>267.27</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>45921</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="n">
+        <v>262.93</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A7" s="5" t="n">
+        <v>261.87</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>46.53</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>213.86</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>213.38</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>204.23</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>200.35</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>195.72</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>177.83</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>173.98</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>169.12</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>166.38</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/exemples/cryptoAAVEpolygon.xlsx
+++ b/exemples/cryptoAAVEpolygon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t xml:space="preserve">nom</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t xml:space="preserve">19:00:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/11/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19:00:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20:14:09</t>
   </si>
 </sst>
 </file>
@@ -520,7 +529,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -599,7 +608,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>16</v>
@@ -615,23 +624,23 @@
       </c>
       <c r="I2" s="7" t="n">
         <f aca="false">MIN(A4:A9999)</f>
-        <v>166.38</v>
+        <v>2</v>
       </c>
       <c r="J2" s="8" t="n">
         <f aca="false">SUMPRODUCT(A4:A9999,B4:B9999)/SUM(B4:B9999)</f>
-        <v>253.101262696461</v>
+        <v>219.264442735569</v>
       </c>
       <c r="K2" s="7" t="n">
         <f aca="false">J2*(1+(C2/100))</f>
-        <v>303.721515235753</v>
+        <v>263.117331282682</v>
       </c>
       <c r="L2" s="8" t="n">
         <f aca="false">SUM(B4:B9999)</f>
-        <v>93.53</v>
+        <v>97.53</v>
       </c>
       <c r="M2" s="9" t="n">
         <f aca="false">COUNTA(A1:A9999)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2" s="10" t="n">
         <v>18</v>
@@ -653,7 +662,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
-        <v>295.46</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>10</v>
@@ -819,7 +828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>169.12</v>
       </c>
@@ -833,7 +842,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>166.38</v>
       </c>
@@ -845,6 +854,34 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>162.34</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>161.11</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
